--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Québec/Centre_hospitalier_universitaire_de_Québec.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Québec/Centre_hospitalier_universitaire_de_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Qu%C3%A9bec</t>
+          <t>Centre_hospitalier_universitaire_de_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier universitaire de Québec, aussi désigné en tant que CHU de Québec−Université Laval, est un centre hospitalier universitaire situé à Québec.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Qu%C3%A9bec</t>
+          <t>Centre_hospitalier_universitaire_de_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un des plus grands pôles d'enseignement universitaire en santé au Québec, il dispense des soins généraux, spécialisés et surspécialisés auprès d'un bassin de près de 2 millions de personnes[1]. Il est affilié à l'Université Laval. Le CHU compte près de 12 000 employés, 1 500 médecins, dentistes et pharmaciens, 700 chercheurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un des plus grands pôles d'enseignement universitaire en santé au Québec, il dispense des soins généraux, spécialisés et surspécialisés auprès d'un bassin de près de 2 millions de personnes. Il est affilié à l'Université Laval. Le CHU compte près de 12 000 employés, 1 500 médecins, dentistes et pharmaciens, 700 chercheurs.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Qu%C3%A9bec</t>
+          <t>Centre_hospitalier_universitaire_de_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre hospitalier universitaire de Québec est créé en 1995 par la fusion administrative de l'Hôtel-Dieu, de l'Hôpital Saint-François d’Assise et du Centre hospitalier de l’Université Laval. En 2012, le Centre hospitalier affilié universitaire de Québec (CHA) est greffé à son tour à l'organisation.
 En 2015, le projet de loi 10 est adopté par l'Assemblée Nationale et la structure du CHU de Québec s'en voit modifiée. L'ensemble de l'organisation est transféré au Centre intégré universitaire de santé et services sociaux de la Capitale-Nationale et devient le CHU de Québec-Université Laval.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Qu%C3%A9bec</t>
+          <t>Centre_hospitalier_universitaire_de_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le CHU de Québec regroupe cinq hôpitaux :
 CHUL (Centre hospitalier de l'Université Laval)
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Qu%C3%A9bec</t>
+          <t>Centre_hospitalier_universitaire_de_Québec</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Réseau universitaire intégré de santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Institut universitaire de cardiologie et de pneumologie de Québec
 Maison Michel-Sarrazin (soins palliatifs)
@@ -623,9 +643,43 @@
 de la Gaspésie
 des Iles
 du Bas-Saint-Laurent
-de Lanaudière
-Réseau d’unités de médecine familiale
-UMF de Trois-Pistoles
+de Lanaudière</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_de_Québec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Réseau universitaire intégré de santé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réseau d’unités de médecine familiale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>UMF de Trois-Pistoles
 UMF des Etchemins
 UMF de Gaspé
 UMF Haute-Ville
